--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司添加“电子印章”字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>协议输出界面显示对应公司的印章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,23 +143,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司添加“电子印章”字段,文件上传和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成查询时，自动生成税额等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>凭证生成，添加三级科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>UI界面调整，数据库添加字段。  接口三级科目解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +280,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -583,13 +598,13 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="48.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,14 +620,14 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -623,13 +638,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
@@ -637,13 +652,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -653,25 +668,28 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -679,13 +697,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -693,120 +711,129 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F13" s="7">
+        <v>42143</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
-      <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
     </row>
   </sheetData>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,20 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 6种特殊申请单的数据展示（拼装展示数据）
+2. 特殊申请单的修改界面（复用现在的创建界面）
+3.特殊申请的后以处理流程
+3.1 同意特殊申请 
+3.2 取消特殊申请：（设置档案关的标示字段、设置申请单的处理状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 根据特殊申请单的基金的关联有限合伙 查询到公司的 GP设置
+2. 使用条件加载需要的模块（单GP/又GP）来显示协议
+3. 编写获取公司电子印章的后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,15 +602,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="48.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="67.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
@@ -731,12 +745,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
@@ -756,12 +773,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,14 @@
     <t>1. 根据特殊申请单的基金的关联有限合伙 查询到公司的 GP设置
 2. 使用条件加载需要的模块（单GP/又GP）来显示协议
 3. 编写获取公司电子印章的后台接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司添加证件号码字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +611,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -808,7 +816,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7">
+        <v>42145</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>6</v>
       </c>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>凭证生成，添加三级科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI界面调整，数据库添加字段。  接口三级科目解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,7 +197,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司添加证件号码字段</t>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司添加证件号码字段,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司创建和编辑界面都添加一个“证件号码”控件，并验证不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面调整，数据库添加字段。  接口三级科目解析
+数据为表添加三级科目匹配和验证数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从科目表中只需要匹配出两条数据，判断是否合法；
+使用另一记录自动转换成凭证，一条银行记录生成两条凭证记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -732,8 +754,14 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" s="7">
+        <v>42143</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>6</v>
@@ -747,7 +775,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -761,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
@@ -789,21 +817,27 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7">
+        <v>42143</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>
@@ -817,9 +851,15 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="7">
@@ -830,7 +870,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,42 @@
   <si>
     <t>从科目表中只需要匹配出两条数据，判断是否合法；
 使用另一记录自动转换成凭证，一条银行记录生成两条凭证记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金最低投资额度验证和设置功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊申请 验证金额是否满足规则
+1.转投金额
+2.续投金额
+3.合并金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金对象添加最小额度和金额验证公式字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"添加投资档案“—验证投资额度是否满足规则
+编辑投资档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码位置:特殊申请单保存和修改前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码位置：投资档案创建、更新。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +669,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -873,18 +909,40 @@
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
+    <row r="17" spans="2:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊申请“同意”和“取消”操作，及协议预览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>story</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +164,6 @@
   </si>
   <si>
     <t>提成查询时，自动生成税额等信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凭证生成，添加三级科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,6 +252,88 @@
   </si>
   <si>
     <t>代码位置：投资档案创建、更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊申请“同意”和“取消”操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊申请新模板展示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.委托付款申请
+2.到期转投
+3.未到期转投（单GP)、双GP
+4.退伙 5.续投（单双GP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新合同编号验证规则更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加验证规则：
+1.此合同编号没有出现在待审批的特殊单中（新合同编号：xhbh)字段
+   注：没有被预分配给其它操作？添加一个预计分配表？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊申请，合同预分配管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从excel文档中导入其它银行的交易流水，并生成对应的凭证记录
+建议此功能使用C#方式导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它银行交易流水导入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊申请的后台处理逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证生成，添加三级科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.代码创建投资档案，更新提成信息。处理未支付的兑付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -718,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -732,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -760,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -777,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -791,10 +865,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7">
         <v>42143</v>
@@ -811,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -822,61 +896,61 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7">
+        <v>42146</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7">
-        <v>42143</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7">
         <v>42143</v>
@@ -885,21 +959,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F14" s="7">
-        <v>42145</v>
+        <v>42143</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>6</v>
@@ -907,61 +981,121 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7">
+        <v>42145</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="66" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
+    <row r="18" spans="2:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7">
+        <v>42146</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7">
+        <v>42146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
@@ -970,16 +1104,19 @@
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B23">
+  <conditionalFormatting sqref="B3:B24">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="bug">
       <formula>NOT(ISERROR(SEARCH("bug",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B22">
+  <conditionalFormatting sqref="B3:B23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"story"</formula>
     </cfRule>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,58 @@
   </si>
   <si>
     <t>1.代码创建投资档案，更新提成信息。处理未支付的兑付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同查询界面在IE8下面的兼容性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有很多的“undefined"字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办事项显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主页面上显示待办事项列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户信息界面，添加银行信息界面不能显示（IE8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有银行信息的输入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户 按钮不可用(IE8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件没有执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -794,6 +846,9 @@
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="F3" s="7">
+        <v>42143</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
@@ -808,6 +863,9 @@
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F4" s="7">
+        <v>42147</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
@@ -839,6 +897,9 @@
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F6" s="7">
+        <v>42146</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1096,18 +1157,62 @@
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7">
+        <v>42149</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="7">
+        <v>42151</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7">
+        <v>42151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码位置：投资档案创建、更新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊申请“同意”和“取消”操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,39 +349,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>待办事项显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主页面上显示待办事项列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户信息界面，添加银行信息界面不能显示（IE8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有银行信息的输入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客户 按钮不可用(IE8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件没有执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>story</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待办事项显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在主页面上显示待办事项列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改客户信息界面，添加银行信息界面不能显示（IE8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有银行信息的输入界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新客户 按钮不可用(IE8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件没有执行</t>
+    <t>基金信息汇总报表及图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单个基金有月份趋势表
+单基金提成、兑付（日、月）对比表
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码位置：投资档案创建、更新。
+1.基金对象类添加最低投资金额限制
+2.创建和更新投资档案时查询最金额限制
+3.基金创建和编辑界面添加“最低投资额”选择项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,22 +464,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,9 +486,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,7 +496,67 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -792,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -834,7 +895,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -846,7 +907,7 @@
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>42143</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -854,7 +915,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -863,7 +924,7 @@
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>42147</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -871,7 +932,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -880,12 +941,18 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42157</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -897,7 +964,7 @@
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>42146</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -905,7 +972,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -919,7 +986,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -931,7 +998,7 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>42143</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -939,7 +1006,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -953,33 +1020,39 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="6">
+        <v>42149</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="66" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>42146</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -987,7 +1060,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -996,12 +1069,15 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="6">
+        <v>42151</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1013,7 +1089,7 @@
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>42143</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1021,11 +1097,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -1033,7 +1109,7 @@
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>42143</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1041,7 +1117,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1053,7 +1129,7 @@
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>42145</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1061,7 +1137,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1074,22 +1150,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="6">
+        <v>42153</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1103,100 +1182,106 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="6">
+        <v>42146</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6">
+        <v>42146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="7">
-        <v>42146</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="7">
-        <v>42146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="6">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="7">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="6">
+        <v>42151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>42151</v>
       </c>
     </row>
@@ -1205,25 +1290,93 @@
         <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6">
+        <v>42151</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="7">
-        <v>42151</v>
-      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B24">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="bug">
+  <conditionalFormatting sqref="B3:B23">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="bug">
       <formula>NOT(ISERROR(SEARCH("bug",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"story"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B41">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="bug">
+      <formula>NOT(ISERROR(SEARCH("bug",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B41">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"story"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ok">
+      <formula>NOT(ISERROR(SEARCH("ok",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,16 +389,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">单个基金有月份趋势表
-单基金提成、兑付（日、月）对比表
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码位置：投资档案创建、更新。
 1.基金对象类添加最低投资金额限制
 2.创建和更新投资档案时查询最金额限制
 3.基金创建和编辑界面添加“最低投资额”选择项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.单基金提成、兑付（日、月）对比表
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单个基金每月份的实募和预募的柱状对比图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -464,13 +476,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,11 +522,20 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -514,36 +553,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H41"/>
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1158,7 +1167,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="6">
         <v>42153</v>
@@ -1177,6 +1189,12 @@
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6">
+        <v>42156</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1299,19 +1317,24 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
@@ -1352,30 +1375,37 @@
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
     </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B23">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="bug">
+  <conditionalFormatting sqref="B3:B23 B29:B42 B27">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="bug">
       <formula>NOT(ISERROR(SEARCH("bug",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B23">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="B3:B23 B29:B42 B27">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"story"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B41">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="bug">
+  <conditionalFormatting sqref="B24:B26">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="bug">
       <formula>NOT(ISERROR(SEARCH("bug",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B41">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="B24:B26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"story"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ok">
+  <conditionalFormatting sqref="E3:E33">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",E3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,34 @@
   </si>
   <si>
     <t>1.单个基金每月份的实募和预募的柱状对比图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改特殊申请单的提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为“提交”为”保存申请单“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个特殊申请添加编辑界面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先考虑复用添加界面！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1155,6 +1183,12 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42158</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1361,9 @@
       <c r="D27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6">
+        <v>42156</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
@@ -1337,10 +1373,32 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="6">
+        <v>42143</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6">
+        <v>42143</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="5"/>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>优先考虑复用添加界面！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1381,6 +1385,9 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F29" s="6">
         <v>42143</v>

--- a/QuestionAndBugs.xlsx
+++ b/QuestionAndBugs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,10 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同预分配功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1263,6 +1267,9 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>64</v>
